--- a/UK marginal tax rate calculator.xlsx
+++ b/UK marginal tax rate calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danneidle/Dropbox/Dan dropbox files/tax policy associates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359FF9A3-4CE5-524C-AFC1-770F6D5005EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2F5B2F-6A15-F94F-B9C1-3C8B217CC4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{1CB8615A-3782-E642-A463-4B8C4FF1AB03}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Basic rate</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>Licensed under the GNU General Public License, version 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn't include tapering of pensions annual allowance (starting at £240k)  </t>
+  </si>
+  <si>
+    <t>Doesn't include effects of pension cap, as v complex and fact-dependent</t>
   </si>
 </sst>
 </file>
@@ -2673,10 +2679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372C87B5-0A94-854C-BD47-01AFAE892DF0}">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2794,6 +2800,7 @@
       <c r="C13" s="7">
         <v>12570</v>
       </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
@@ -2919,19 +2926,29 @@
         <v>17</v>
       </c>
     </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I87" s="7"/>
-      <c r="J87" s="6"/>
+    <row r="89" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I89" s="7"/>
+      <c r="J89" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2942,8 +2959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8F8783-070C-D84B-9AC5-C43C45EC6E14}">
   <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/UK marginal tax rate calculator.xlsx
+++ b/UK marginal tax rate calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danneidle/Dropbox/Dan dropbox files/tax policy associates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2F5B2F-6A15-F94F-B9C1-3C8B217CC4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFFB8EE-0031-C642-9CB8-0186A67A240B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{1CB8615A-3782-E642-A463-4B8C4FF1AB03}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Basic rate</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Assumptions:</t>
-  </si>
-  <si>
-    <t>Three children</t>
   </si>
   <si>
     <t>Gross salary</t>
@@ -2679,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372C87B5-0A94-854C-BD47-01AFAE892DF0}">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2718,7 +2715,7 @@
         <v>12570</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2749,7 +2746,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="7"/>
@@ -2780,7 +2777,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
@@ -2813,24 +2810,24 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="10">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <f xml:space="preserve"> (21.8 + 14.45*(B17-1))*52</f>
@@ -2839,18 +2836,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.01</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>100</v>
@@ -2858,7 +2855,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
         <v>50000</v>
@@ -2869,7 +2866,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>"UK marginal tax rate for single earner, family of "&amp;B17&amp;" kids"</f>
@@ -2883,47 +2880,47 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -2931,9 +2928,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>39</v>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
@@ -2941,14 +2938,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I89" s="7"/>
-      <c r="J89" s="6"/>
+    <row r="88" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I88" s="7"/>
+      <c r="J88" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2967,31 +2959,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
